--- a/doc_ex2/doc/Algo2 BM2 ts1 comparison.xlsx
+++ b/doc_ex2/doc/Algo2 BM2 ts1 comparison.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olga\Desktop\doc_ex2\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olga\Documents\GitHub\Csv_to_Kml_Converter\doc_ex2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -229,7 +229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -369,6 +369,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -377,7 +399,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -385,7 +407,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -411,9 +439,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -736,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1655062-209A-4B36-861B-E6DC8C57DFF6}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.85"/>
@@ -753,26 +778,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.25" thickBot="1" x14ac:dyDescent="1">
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="H1" s="9" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="H1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="11"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="8"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="12"/>
       <c r="O1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -789,7 +814,7 @@
       <c r="D2">
         <v>35.209277232749798</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>707.77061864002599</v>
       </c>
       <c r="F2" t="s">
@@ -823,7 +848,7 @@
         <f t="shared" ref="O2:O10" si="2">(L2+M2+N2)/3</f>
         <v>0.7375014084145709</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="Q2" s="5">
         <f>AVERAGE(O2:O32)</f>
         <v>0.85621575247477444</v>
       </c>
@@ -841,7 +866,7 @@
       <c r="D3">
         <v>35.209113726831497</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="7">
         <v>694.31101949193601</v>
       </c>
       <c r="F3" t="s">
@@ -889,7 +914,7 @@
       <c r="D4">
         <v>35.209209782274698</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <v>704.08558607235602</v>
       </c>
       <c r="F4" t="s">
@@ -937,7 +962,7 @@
       <c r="D5">
         <v>35.209175503246001</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="7">
         <v>705.80225970123104</v>
       </c>
       <c r="F5" t="s">
@@ -985,7 +1010,7 @@
       <c r="D6">
         <v>35.209135129789701</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="7">
         <v>707.84133507885201</v>
       </c>
       <c r="F6" t="s">
@@ -1033,7 +1058,7 @@
       <c r="D7">
         <v>35.209800711606199</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="7">
         <v>706.78668042454103</v>
       </c>
       <c r="F7" t="s">
@@ -1081,7 +1106,7 @@
       <c r="D8">
         <v>35.2089934297247</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="7">
         <v>697.58406974582499</v>
       </c>
       <c r="F8" t="s">
@@ -1129,7 +1154,7 @@
       <c r="D9">
         <v>35.209425419935997</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="7">
         <v>704.99784799491204</v>
       </c>
       <c r="F9" t="s">
@@ -1177,7 +1202,7 @@
       <c r="D10">
         <v>35.209789901416102</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="7">
         <v>707.73039579362705</v>
       </c>
       <c r="F10" t="s">
@@ -1225,7 +1250,7 @@
       <c r="D11">
         <v>35.208710329007801</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="7">
         <v>703.57560499394401</v>
       </c>
       <c r="F11" t="s">
@@ -1256,7 +1281,7 @@
         <v>0.91569615102002899</v>
       </c>
       <c r="O11">
-        <f t="shared" ref="O11:O32" si="4">(L11+M11+N11)/3</f>
+        <f t="shared" ref="O11:O33" si="4">(L11+M11+N11)/3</f>
         <v>0.30524743723944425</v>
       </c>
     </row>
@@ -1273,7 +1298,7 @@
       <c r="D12">
         <v>35.208882492875098</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="7">
         <v>707.66570760285003</v>
       </c>
       <c r="F12" t="s">
@@ -1321,7 +1346,7 @@
       <c r="D13">
         <v>35.208137572229703</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="7">
         <v>694.43105585137903</v>
       </c>
       <c r="F13" t="s">
@@ -1369,7 +1394,7 @@
       <c r="D14">
         <v>35.208138918355097</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="7">
         <v>697.10313027185896</v>
       </c>
       <c r="F14" t="s">
@@ -1417,7 +1442,7 @@
       <c r="D15">
         <v>35.208993154887203</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="7">
         <v>700.93011394950997</v>
       </c>
       <c r="F15" t="s">
@@ -1465,7 +1490,7 @@
       <c r="D16">
         <v>35.208916437150897</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="8">
         <v>694.50394927056504</v>
       </c>
       <c r="F16" t="s">
@@ -1513,7 +1538,7 @@
       <c r="D17">
         <v>35.209125722251699</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="7">
         <v>699.731047038111</v>
       </c>
       <c r="F17" t="s">
@@ -1561,7 +1586,7 @@
       <c r="D18">
         <v>35.209412690823697</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="7">
         <v>697.62471045401696</v>
       </c>
       <c r="F18" t="s">
@@ -1609,7 +1634,7 @@
       <c r="D19">
         <v>35.2094672961708</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="7">
         <v>705.678848226112</v>
       </c>
       <c r="F19" t="s">
@@ -1657,7 +1682,7 @@
       <c r="D20">
         <v>35.209435806838101</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="7">
         <v>698.39396611420796</v>
       </c>
       <c r="F20" t="s">
@@ -1705,7 +1730,7 @@
       <c r="D21">
         <v>35.2091711385522</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="7">
         <v>703.23312996117795</v>
       </c>
       <c r="F21" t="s">
@@ -1753,7 +1778,7 @@
       <c r="D22">
         <v>35.209979718331603</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="7">
         <v>698.98790212936001</v>
       </c>
       <c r="F22" t="s">
@@ -1801,7 +1826,7 @@
       <c r="D23">
         <v>35.209216425740301</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="7">
         <v>711.40874916490202</v>
       </c>
       <c r="F23" t="s">
@@ -1849,7 +1874,7 @@
       <c r="D24">
         <v>35.209104508459902</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="7">
         <v>693.23939265909701</v>
       </c>
       <c r="F24" t="s">
@@ -1897,7 +1922,7 @@
       <c r="D25">
         <v>35.209445548779101</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="7">
         <v>707.54004537178503</v>
       </c>
       <c r="F25" t="s">
@@ -1945,7 +1970,7 @@
       <c r="D26">
         <v>35.208807029741102</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="7">
         <v>698.17239742577397</v>
       </c>
       <c r="F26" t="s">
@@ -1993,7 +2018,7 @@
       <c r="D27">
         <v>35.209652769237003</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="7">
         <v>704.53757927582706</v>
       </c>
       <c r="F27" t="s">
@@ -2041,7 +2066,7 @@
       <c r="D28">
         <v>35.208330376537802</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="7">
         <v>696.24346130321203</v>
       </c>
       <c r="F28" t="s">
@@ -2089,7 +2114,7 @@
       <c r="D29">
         <v>35.208221243138503</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="7">
         <v>693.34850866029899</v>
       </c>
       <c r="F29" t="s">
@@ -2137,7 +2162,7 @@
       <c r="D30">
         <v>35.2090613436865</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="7">
         <v>709.36747256049705</v>
       </c>
       <c r="F30" t="s">
@@ -2185,7 +2210,7 @@
       <c r="D31">
         <v>35.207590211238298</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="7">
         <v>693.10852031086995</v>
       </c>
       <c r="F31" t="s">
@@ -2233,7 +2258,7 @@
       <c r="D32">
         <v>35.209532435064098</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="9">
         <v>707.43018900012203</v>
       </c>
       <c r="F32" t="s">
@@ -2268,10 +2293,22 @@
         <v>1.8745584503848913</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.85">
+    <row r="33" spans="5:14" x14ac:dyDescent="0.85">
       <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.85">
+      <c r="L33">
+        <f>AVERAGE(L2:L32)</f>
+        <v>1.2801375275522047E-4</v>
+      </c>
+      <c r="M33">
+        <f>AVERAGE(M2:M32)</f>
+        <v>4.2447077460669716E-5</v>
+      </c>
+      <c r="N33" s="4">
+        <f>AVERAGE(N2:N32)</f>
+        <v>2.5684767965941071</v>
+      </c>
+    </row>
+    <row r="34" spans="5:14" x14ac:dyDescent="0.85">
       <c r="E34" s="3"/>
     </row>
   </sheetData>
